--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8177,6 +8177,1392 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>UFO</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2024.02</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=334642427</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>딥테크 스타트업</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2024.02</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=334205647</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>수능독해</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2024.02</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332992575</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>자바스크립트</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332595938</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>IT 세계의 괴물들</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=329934326</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>자료구조와 알고리즘 with 파이썬</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2023.11</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=328631057</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>스티브 잡스는 왜 오징어 게임을 죽였을까?</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=325429377</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>프롬프트 엔지니어링</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=325428104</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>챗GPT 자기주도 공부법</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2023.08</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=322488350</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>챗GPT 영어회화</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2023.08</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=321904017</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>챗GPT 교과서</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2023.08</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>생능북스</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=320896793</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>모모와 다큰 왕자</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2024.03</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>애드앤미디어</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=334928723</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>에잇 블록 협상 모델</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>애드앤미디어</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=330725742</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>스물 둘, 혼자 떠나는 남미여행</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2023.11</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>애드앤미디어</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=329884979</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>프롬프트 엔지니어링 교과서</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2023.09</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>애드앤미디어</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=324201397</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>[큰글씨책] 로절린드 크라우스</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2024.02</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=334953176</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>로절린드 크라우스</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2024.02</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=334951275</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>[큰글자책] 아비 바르부르크</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2024.02</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=334065064</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>아비 바르부르크</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2024.02</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=334065050</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>세일라 벤하비브</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=333159800</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>[큰글자책] 세일라 벤하비브</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=333159056</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>[큰글자책] 인공지능 앞에 선 CEO</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=333005369</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>인공지능 앞에 선 CEO</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=333005368</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>[큰글자책] 학교로 들어간 AI</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332998611</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>학교로 들어간 AI</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332998434</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>AI 공감 대화</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332865956</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>[큰글자책] 세계유산</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332865902</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>[큰글자책] AI 공감 대화</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332864729</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>세계유산</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332864664</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>[큰글자책] 소비자 행동 핵심 개념</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=331807685</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>[큰글자책] 소비자 행동의 이해</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=331807269</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>소비자 행동 핵심 개념</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=331806107</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>소비자 행동의 이해</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2024.01</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=331805873</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>[큰글자책] 온라인 다크 패턴</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2023.12</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=329673965</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>온라인 다크 패턴</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2023.12</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=329664936</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>뉴스룸 내부 커뮤니케이션 개선 방안 연구</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2023.11</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=332991596</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>‘미디어와 인격권’ 교육 : 커리큘럼 및 활성화 방안</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2023.11</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=330836442</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>클래식 음악의 이해</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2023.11</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=328635056</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>[큰글씨책] 클래식 음악의 이해</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2023.11</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=328631591</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>디지털 영상 조명</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2023.11</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=328061938</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>[큰글씨책] 디지털 영상 조명</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2023.11</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=328061678</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>메타버스 예술의 유통과 소비</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=327511133</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>[큰글자책] 메타버스 예술의 유통과 소비</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=327510871</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>[큰글자책] 예술가의 메타버스 사용법</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=327505039</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>예술가의 메타버스 사용법</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=327503126</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>[큰글자책] 예술의 메타버스 활용</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=327502528</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>[큰글자책] 예술과 메타버스의 만남</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=327502269</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>예술의 메타버스 활용</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=327499625</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>예술과 메타버스의 만남</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=327499424</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>케이팝</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=326513947</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>[큰글자책] 케이팝</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=326508973</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>[큰글자책] 아포칼립스 영화</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=326119033</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>아포칼립스 영화</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=326115902</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>[큰글자책] 블록체인과 국가</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=325433544</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>블록체인과 국가</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2023.10</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=325352193</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>[큰글자책] 문화콘텐츠 경영전략</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2023.09</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=324493383</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>문화콘텐츠 경영전략</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2023.09</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=324493219</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>[큰글자책] 국방 커뮤니케이션</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2023.09</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=323839184</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>국방 커뮤니케이션</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2023.09</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=323837891</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>[큰글자책] 저널리즘과 질문의 자격</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2023.08</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=323273536</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>저널리즘과 질문의 자격</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2023.08</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=323273047</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>[큰글자책] 플랫폼 내러티브</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2023.08</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=323156144</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>플랫폼 내러티브</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2023.08</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>커뮤니케이션북스</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>https://www.aladin.co.kr/shop/wproduct.aspx?ItemId=323154721</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
